--- a/data/trans_dic/P64D$publico_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$publico_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01563383451680238</v>
+        <v>0.01563672054381139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0128163895903808</v>
+        <v>0.01280068540498762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01777063489916051</v>
+        <v>0.01832545462772798</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07107104622686534</v>
+        <v>0.06961376837711236</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05685498874458961</v>
+        <v>0.05565500659487019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05384337168320311</v>
+        <v>0.05386784503915763</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.06278439964444781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05409235998822253</v>
+        <v>0.05409235998822254</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02345189414288711</v>
+        <v>0.02222659124763091</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03083594692056175</v>
+        <v>0.03204909640705421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03320004408668537</v>
+        <v>0.03228120987268632</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09255029525428482</v>
+        <v>0.09142715528071078</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1173496972915369</v>
+        <v>0.1175635879393384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09035402335291778</v>
+        <v>0.08902927965562285</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.1003677635259051</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0519579908034438</v>
+        <v>0.05195799080344381</v>
       </c>
     </row>
     <row r="11">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05647756938241032</v>
+        <v>0.05742848682887079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03074311649261896</v>
+        <v>0.03001153995585249</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0473789563939454</v>
+        <v>0.04163894212131243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1746863587574779</v>
+        <v>0.1658281651436737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08373029240038933</v>
+        <v>0.08519173245543216</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003615114050958924</v>
+        <v>0.003380123113817398</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03902372807693116</v>
+        <v>0.0380091205329214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02185691054933035</v>
+        <v>0.02106450784885931</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04398894219865267</v>
+        <v>0.04355083356263317</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1233452524426556</v>
+        <v>0.1220081025088984</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06546680395095252</v>
+        <v>0.06255003058410891</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01800212210395926</v>
+        <v>0.01989301398510512</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004105751906264908</v>
+        <v>0.003949393846830702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01715976653165138</v>
+        <v>0.01651195578477361</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09115947046367821</v>
+        <v>0.09980553686358283</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04928517749222631</v>
+        <v>0.04787267407132399</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06313175102051641</v>
+        <v>0.06331811695619273</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.006540502143736042</v>
+        <v>0.006540502143736043</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.01448441144630554</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002797742133000574</v>
+        <v>0.00278423876124012</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03476186578510262</v>
+        <v>0.03285769905440147</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05129421500044731</v>
+        <v>0.05075934334684708</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02897432110110994</v>
+        <v>0.02647790236449338</v>
       </c>
     </row>
     <row r="22">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.06991070819660518</v>
+        <v>0.06991070819660516</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09887323939338508</v>
+        <v>0.09887323939338505</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.08388386369600088</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04677786221852212</v>
+        <v>0.0442389856181146</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07050331104892503</v>
+        <v>0.07240746118915854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06521874901634969</v>
+        <v>0.06299908613343558</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1083377116773168</v>
+        <v>0.106416922104078</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1306917512601258</v>
+        <v>0.1296641687395312</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1106601784555775</v>
+        <v>0.1065051349443719</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.296669664873105</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2521821179500143</v>
+        <v>0.2521821179500144</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1836331232662005</v>
+        <v>0.1793985535491143</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2496162438782306</v>
+        <v>0.2510224988392405</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2223653112274172</v>
+        <v>0.2225359098992269</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2671340659219354</v>
+        <v>0.2650551769884104</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3439467613128999</v>
+        <v>0.347766900815024</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2858091573087065</v>
+        <v>0.286199276601328</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.08266680517370262</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.1142801098429939</v>
+        <v>0.114280109842994</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.09653648426882781</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06862647780725617</v>
+        <v>0.06930309749398579</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1002592643976408</v>
+        <v>0.09834485033220097</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08680504770128712</v>
+        <v>0.08726450139682146</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0972435650658646</v>
+        <v>0.096993283964197</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1315996809280773</v>
+        <v>0.1295877529929924</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.107918916403278</v>
+        <v>0.1080904569527336</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6211</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14090</v>
+        <v>13801</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8601</v>
+        <v>8419</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18820</v>
+        <v>18829</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5881</v>
+        <v>5574</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5241</v>
+        <v>5447</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13968</v>
+        <v>13581</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23208</v>
+        <v>22926</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19944</v>
+        <v>19981</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38014</v>
+        <v>37456</v>
       </c>
     </row>
     <row r="12">
@@ -1337,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6794</v>
+        <v>6909</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8258</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7026</v>
+        <v>6175</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21015</v>
+        <v>19949</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22490</v>
+        <v>22883</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>752</v>
+        <v>703</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6963</v>
+        <v>6782</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8448</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9154</v>
+        <v>9062</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22009</v>
+        <v>21770</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25304</v>
+        <v>24177</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2421</v>
+        <v>2675</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4329</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12259</v>
+        <v>13422</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5805</v>
+        <v>5639</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15926</v>
+        <v>15973</v>
       </c>
     </row>
     <row r="24">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4677</v>
+        <v>4421</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4434</v>
+        <v>4387</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6403</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17887</v>
+        <v>16916</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25131</v>
+        <v>25810</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>48186</v>
+        <v>46546</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>41426</v>
+        <v>40692</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>46586</v>
+        <v>46219</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>81760</v>
+        <v>78690</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>82890</v>
+        <v>80979</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>77615</v>
+        <v>78052</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>169516</v>
+        <v>169646</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>120582</v>
+        <v>119644</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>106946</v>
+        <v>108134</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>217881</v>
+        <v>218178</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>130952</v>
+        <v>132244</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>149545</v>
+        <v>146689</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>295117</v>
+        <v>296679</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>185559</v>
+        <v>185082</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>196291</v>
+        <v>193290</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>366900</v>
+        <v>367483</v>
       </c>
     </row>
     <row r="40">
